--- a/_Análisis/Data/relaciones_extramaritales.xlsx
+++ b/_Análisis/Data/relaciones_extramaritales.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Proyecto_STATA\_Análisis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE3076D-3B96-4AA5-9CB0-48DDCF383D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4855567-F91C-4B67-B729-E117488B4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="10545" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="10545" windowHeight="12105" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>relaciones_extramaritales</t>
   </si>
@@ -384,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90EA368-6E08-4C54-A49D-A054FB89E64A}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection sqref="A1:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1518,4 +1519,1141 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9931B99-2ADC-4CB6-9059-4AEE0A9E8230}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>40</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>8600</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6200</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4700</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8700</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>60</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10100</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4900</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7200</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>9300</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8900</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>42</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11600</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>12200</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9100</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>8200</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>9400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>60</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5900</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15300</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12200</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20500</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>14300</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>70</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>33000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>59</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>36000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>60</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>72</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>66</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4800</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>32</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4200</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>60</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>0</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3100</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>63</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>0</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3400</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>70</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>0</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6700</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7100</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>0</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5800</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>64</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1">
+        <v>7700</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>59</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>8800</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>0</v>
+      </c>
+      <c r="B45" s="1">
+        <v>7600</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>75</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5700</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>77</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>0</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4500</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>69</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>4</v>
+      </c>
+      <c r="B48" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>62</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>4</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>64</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>57</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>55</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
+        <v>37000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <v>50</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>56</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
+        <v>34000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>60</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>70</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>13000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>54</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>52</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7500</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>47</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>5700</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>54</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1">
+        <v>4600</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>60</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1">
+        <v>57</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>0</v>
+      </c>
+      <c r="B64" s="1">
+        <v>5100</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <v>57</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>0</v>
+      </c>
+      <c r="B65" s="1">
+        <v>4100</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <v>60</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>0</v>
+      </c>
+      <c r="B66" s="1">
+        <v>5000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <v>49</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>